--- a/excel/tests/q_learn_5_rooms_test_epsilon.xlsx
+++ b/excel/tests/q_learn_5_rooms_test_epsilon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Episodes</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Iterations</t>
+  </si>
+  <si>
+    <t>Epsilon = 0,15</t>
   </si>
 </sst>
 </file>
@@ -380,15 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,23 +416,27 @@
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" t="s">
         <v>10</v>
       </c>
@@ -484,8 +491,14 @@
       <c r="T2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="U2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>0</v>
       </c>
@@ -523,31 +536,37 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>25.636900000000001</v>
+        <v>25.1294</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.223099999999999</v>
+        <v>25.636900000000001</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>24.688400000000001</v>
+        <v>24.223099999999999</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>23.614699999999999</v>
+        <v>24.688400000000001</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="U3">
+        <v>23.614699999999999</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1</v>
       </c>
@@ -585,31 +604,37 @@
         <v>196</v>
       </c>
       <c r="M4">
+        <v>34.465899999999998</v>
+      </c>
+      <c r="N4">
+        <v>138</v>
+      </c>
+      <c r="O4">
         <v>34.151000000000003</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>95</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>33.033499999999997</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>82</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>33.264200000000002</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>77</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>27.0182</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2</v>
       </c>
@@ -647,31 +672,37 @@
         <v>182</v>
       </c>
       <c r="M5">
+        <v>36.323599999999999</v>
+      </c>
+      <c r="N5">
+        <v>131</v>
+      </c>
+      <c r="O5">
         <v>34.831899999999997</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>110</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>34.623199999999997</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>89</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>33.135899999999999</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>84</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>32.640500000000003</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>3</v>
       </c>
@@ -709,31 +740,37 @@
         <v>179</v>
       </c>
       <c r="M6">
+        <v>37.481699999999996</v>
+      </c>
+      <c r="N6">
+        <v>140</v>
+      </c>
+      <c r="O6">
         <v>37.517400000000002</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>115</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>35.236699999999999</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>88</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>33.0535</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>77</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>32.621200000000002</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>4</v>
       </c>
@@ -771,31 +808,37 @@
         <v>193</v>
       </c>
       <c r="M7">
+        <v>36.207700000000003</v>
+      </c>
+      <c r="N7">
+        <v>140</v>
+      </c>
+      <c r="O7">
         <v>35.862400000000001</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>114</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>34.813499999999998</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>81</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>33.907200000000003</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>74</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>30.935500000000001</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>5</v>
       </c>
@@ -833,31 +876,37 @@
         <v>194</v>
       </c>
       <c r="M8">
+        <v>37.674100000000003</v>
+      </c>
+      <c r="N8">
+        <v>136</v>
+      </c>
+      <c r="O8">
         <v>37.308100000000003</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>114</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>36.307299999999998</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>81</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>35.838200000000001</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>67</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>33.232399999999998</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>6</v>
       </c>
@@ -895,31 +944,37 @@
         <v>193</v>
       </c>
       <c r="M9">
+        <v>38.996400000000001</v>
+      </c>
+      <c r="N9">
+        <v>134</v>
+      </c>
+      <c r="O9">
         <v>37.498399999999997</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>110</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>35.4452</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>85</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>33.72</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>72</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>32.895000000000003</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>7</v>
       </c>
@@ -957,31 +1012,37 @@
         <v>178</v>
       </c>
       <c r="M10">
+        <v>38.634399999999999</v>
+      </c>
+      <c r="N10">
+        <v>138</v>
+      </c>
+      <c r="O10">
         <v>37.898000000000003</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>105</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>36.048200000000001</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>81</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>34.062100000000001</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>68</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>34.404600000000002</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1019,31 +1080,37 @@
         <v>185</v>
       </c>
       <c r="M11">
+        <v>37.953600000000002</v>
+      </c>
+      <c r="N11">
+        <v>127</v>
+      </c>
+      <c r="O11">
         <v>38.353700000000003</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>95</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>36.221200000000003</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>78</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>35.395699999999998</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>65</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>33.996200000000002</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1081,31 +1148,37 @@
         <v>193</v>
       </c>
       <c r="M12">
+        <v>38.440199999999997</v>
+      </c>
+      <c r="N12">
+        <v>125</v>
+      </c>
+      <c r="O12">
         <v>37.705300000000001</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>103</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>36.961300000000001</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>75</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>35.485199999999999</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>63</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>34.610500000000002</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1143,31 +1216,37 @@
         <v>168</v>
       </c>
       <c r="M13">
+        <v>39.162700000000001</v>
+      </c>
+      <c r="N13">
+        <v>119</v>
+      </c>
+      <c r="O13">
         <v>38.758299999999998</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>100</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>37.043599999999998</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>72</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>35.366100000000003</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>64</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>35.543700000000001</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1205,31 +1284,37 @@
         <v>177</v>
       </c>
       <c r="M14">
+        <v>39.434199999999997</v>
+      </c>
+      <c r="N14">
+        <v>115</v>
+      </c>
+      <c r="O14">
         <v>37.752099999999999</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>100</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>36.269300000000001</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>68</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>34.859000000000002</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>64</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>33.160699999999999</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1267,31 +1352,37 @@
         <v>161</v>
       </c>
       <c r="M15">
+        <v>39.571399999999997</v>
+      </c>
+      <c r="N15">
+        <v>105</v>
+      </c>
+      <c r="O15">
         <v>38.830599999999997</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>92</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>37.564599999999999</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>71</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>37.804000000000002</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>63</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>33.322200000000002</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1329,31 +1420,37 @@
         <v>154</v>
       </c>
       <c r="M16">
+        <v>38.449199999999998</v>
+      </c>
+      <c r="N16">
+        <v>110</v>
+      </c>
+      <c r="O16">
         <v>38.290700000000001</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>87</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>37.838200000000001</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>69</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>35.2746</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>60</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>34.475499999999997</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1391,31 +1488,37 @@
         <v>144</v>
       </c>
       <c r="M17">
+        <v>39.312100000000001</v>
+      </c>
+      <c r="N17">
+        <v>99</v>
+      </c>
+      <c r="O17">
         <v>38.031700000000001</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>82</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>37.989100000000001</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>65</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>36.286700000000003</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>62</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>35.695399999999999</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1453,31 +1556,37 @@
         <v>135</v>
       </c>
       <c r="M18">
+        <v>38.2226</v>
+      </c>
+      <c r="N18">
+        <v>101</v>
+      </c>
+      <c r="O18">
         <v>38.600200000000001</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>76</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>37.352400000000003</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>68</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>36.493299999999998</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>58</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>35.007599999999996</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1515,31 +1624,37 @@
         <v>123</v>
       </c>
       <c r="M19">
+        <v>39.167400000000001</v>
+      </c>
+      <c r="N19">
+        <v>99</v>
+      </c>
+      <c r="O19">
         <v>38.812800000000003</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>76</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>37.495100000000001</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>64</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>35.921100000000003</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>57</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>37.210099999999997</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1577,31 +1692,37 @@
         <v>123</v>
       </c>
       <c r="M20">
+        <v>39.163899999999998</v>
+      </c>
+      <c r="N20">
+        <v>88</v>
+      </c>
+      <c r="O20">
         <v>38.170099999999998</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>76</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>38.540500000000002</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>63</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>36.4559</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>54</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>34.921399999999998</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1639,31 +1760,37 @@
         <v>120</v>
       </c>
       <c r="M21">
+        <v>38.594900000000003</v>
+      </c>
+      <c r="N21">
+        <v>90</v>
+      </c>
+      <c r="O21">
         <v>38.914700000000003</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>75</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>37.906700000000001</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>58</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>36.132199999999997</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>55</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>34.903399999999998</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1701,31 +1828,37 @@
         <v>114</v>
       </c>
       <c r="M22">
+        <v>39.173200000000001</v>
+      </c>
+      <c r="N22">
+        <v>82</v>
+      </c>
+      <c r="O22">
         <v>39.223100000000002</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>74</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>38.395299999999999</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>57</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>37.630000000000003</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>53</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>37.122900000000001</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1763,31 +1896,37 @@
         <v>109</v>
       </c>
       <c r="M23">
+        <v>38.978999999999999</v>
+      </c>
+      <c r="N23">
+        <v>78</v>
+      </c>
+      <c r="O23">
         <v>38.157200000000003</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>71</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>37.226900000000001</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>54</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>37.504300000000001</v>
-      </c>
-      <c r="R23">
-        <v>51</v>
-      </c>
-      <c r="S23">
-        <v>35.273299999999999</v>
       </c>
       <c r="T23">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="U23">
+        <v>35.273299999999999</v>
+      </c>
+      <c r="V23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>25</v>
       </c>
@@ -1825,31 +1964,37 @@
         <v>104</v>
       </c>
       <c r="M24">
+        <v>38.944099999999999</v>
+      </c>
+      <c r="N24">
+        <v>73</v>
+      </c>
+      <c r="O24">
         <v>39.034700000000001</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>64</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>38.872700000000002</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>48</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>37.682600000000001</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>49</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>36.378999999999998</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>30</v>
       </c>
@@ -1887,31 +2032,37 @@
         <v>92</v>
       </c>
       <c r="M25">
+        <v>39.054400000000001</v>
+      </c>
+      <c r="N25">
+        <v>68</v>
+      </c>
+      <c r="O25">
         <v>38.740600000000001</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>57</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>38.893099999999997</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>47</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>36.7697</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>45</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>34.785600000000002</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>35</v>
       </c>
@@ -1949,31 +2100,37 @@
         <v>80</v>
       </c>
       <c r="M26">
+        <v>39.4422</v>
+      </c>
+      <c r="N26">
+        <v>60</v>
+      </c>
+      <c r="O26">
         <v>39.213099999999997</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>51</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>38.002000000000002</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>44</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>38.200299999999999</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>42</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>36.284599999999998</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>40</v>
       </c>
@@ -2011,31 +2168,37 @@
         <v>72</v>
       </c>
       <c r="M27">
+        <v>38.813899999999997</v>
+      </c>
+      <c r="N27">
+        <v>55</v>
+      </c>
+      <c r="O27">
         <v>38.9953</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>48</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>37.9315</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>42</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>37.5655</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>40</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>37.870800000000003</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>45</v>
       </c>
@@ -2073,31 +2236,37 @@
         <v>69</v>
       </c>
       <c r="M28">
+        <v>38.825499999999998</v>
+      </c>
+      <c r="N28">
+        <v>51</v>
+      </c>
+      <c r="O28">
         <v>39.040599999999998</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>46</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>39.036499999999997</v>
-      </c>
-      <c r="P28">
-        <v>41</v>
-      </c>
-      <c r="Q28">
-        <v>37.402999999999999</v>
       </c>
       <c r="R28">
         <v>41</v>
       </c>
       <c r="S28">
+        <v>37.402999999999999</v>
+      </c>
+      <c r="T28">
+        <v>41</v>
+      </c>
+      <c r="U28">
         <v>37.175600000000003</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>50</v>
       </c>
@@ -2135,31 +2304,37 @@
         <v>62</v>
       </c>
       <c r="M29">
+        <v>38.7928</v>
+      </c>
+      <c r="N29">
+        <v>48</v>
+      </c>
+      <c r="O29">
         <v>39.560200000000002</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>42</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>38.4375</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>36</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>37.250399999999999</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>38</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>35.522300000000001</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>60</v>
       </c>
@@ -2197,31 +2372,37 @@
         <v>53</v>
       </c>
       <c r="M30">
+        <v>39.606099999999998</v>
+      </c>
+      <c r="N30">
+        <v>45</v>
+      </c>
+      <c r="O30">
         <v>39.833599999999997</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>40</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>38.464599999999997</v>
-      </c>
-      <c r="P30">
-        <v>38</v>
-      </c>
-      <c r="Q30">
-        <v>36.9848</v>
       </c>
       <c r="R30">
         <v>38</v>
       </c>
       <c r="S30">
-        <v>34.051099999999998</v>
+        <v>36.9848</v>
       </c>
       <c r="T30">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="U30">
+        <v>34.051099999999998</v>
+      </c>
+      <c r="V30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>70</v>
       </c>
@@ -2259,31 +2440,37 @@
         <v>51</v>
       </c>
       <c r="M31">
+        <v>39.766599999999997</v>
+      </c>
+      <c r="N31">
+        <v>41</v>
+      </c>
+      <c r="O31">
         <v>38.189900000000002</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <v>39</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>38.076999999999998</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>35</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>37.591200000000001</v>
-      </c>
-      <c r="R31">
-        <v>36</v>
-      </c>
-      <c r="S31">
-        <v>37.592100000000002</v>
       </c>
       <c r="T31">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="U31">
+        <v>37.592100000000002</v>
+      </c>
+      <c r="V31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>80</v>
       </c>
@@ -2321,31 +2508,37 @@
         <v>49</v>
       </c>
       <c r="M32">
+        <v>40.001800000000003</v>
+      </c>
+      <c r="N32">
+        <v>41</v>
+      </c>
+      <c r="O32">
         <v>39.4666</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>35</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>37.9497</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>33</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>36.513800000000003</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>35</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <v>35.124699999999997</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>90</v>
       </c>
@@ -2383,31 +2576,37 @@
         <v>42</v>
       </c>
       <c r="M33">
+        <v>40.141199999999998</v>
+      </c>
+      <c r="N33">
+        <v>38</v>
+      </c>
+      <c r="O33">
         <v>39.148000000000003</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>37</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>38.249600000000001</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>35</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <v>37.782400000000003</v>
       </c>
-      <c r="R33">
+      <c r="T33">
         <v>33</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <v>35.297499999999999</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>100</v>
       </c>
@@ -2445,31 +2644,37 @@
         <v>41</v>
       </c>
       <c r="M34">
-        <v>39.718200000000003</v>
+        <v>38.269399999999997</v>
       </c>
       <c r="N34">
         <v>34</v>
       </c>
       <c r="O34">
+        <v>39.718200000000003</v>
+      </c>
+      <c r="P34">
+        <v>34</v>
+      </c>
+      <c r="Q34">
         <v>38.059600000000003</v>
-      </c>
-      <c r="P34">
-        <v>36</v>
-      </c>
-      <c r="Q34">
-        <v>34.722499999999997</v>
       </c>
       <c r="R34">
         <v>36</v>
       </c>
       <c r="S34">
+        <v>34.722499999999997</v>
+      </c>
+      <c r="T34">
+        <v>36</v>
+      </c>
+      <c r="U34">
         <v>35.715000000000003</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>125</v>
       </c>
@@ -2507,31 +2712,37 @@
         <v>39</v>
       </c>
       <c r="M35">
-        <v>39.443199999999997</v>
+        <v>39.971899999999998</v>
       </c>
       <c r="N35">
         <v>33</v>
       </c>
       <c r="O35">
+        <v>39.443199999999997</v>
+      </c>
+      <c r="P35">
+        <v>33</v>
+      </c>
+      <c r="Q35">
         <v>38.380699999999997</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <v>32</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>37.054299999999998</v>
       </c>
-      <c r="R35">
+      <c r="T35">
         <v>31</v>
       </c>
-      <c r="S35">
+      <c r="U35">
         <v>34.0184</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>150</v>
       </c>
@@ -2569,31 +2780,37 @@
         <v>34</v>
       </c>
       <c r="M36">
+        <v>38.1556</v>
+      </c>
+      <c r="N36">
+        <v>36</v>
+      </c>
+      <c r="O36">
         <v>39.133000000000003</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <v>33</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>37.696399999999997</v>
-      </c>
-      <c r="P36">
-        <v>31</v>
-      </c>
-      <c r="Q36">
-        <v>36.658200000000001</v>
       </c>
       <c r="R36">
         <v>31</v>
       </c>
       <c r="S36">
-        <v>35.2254</v>
+        <v>36.658200000000001</v>
       </c>
       <c r="T36">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="U36">
+        <v>35.2254</v>
+      </c>
+      <c r="V36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>175</v>
       </c>
@@ -2631,31 +2848,37 @@
         <v>34</v>
       </c>
       <c r="M37">
+        <v>39.667900000000003</v>
+      </c>
+      <c r="N37">
+        <v>33</v>
+      </c>
+      <c r="O37">
         <v>37.892099999999999</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <v>34</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>38.3917</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <v>30</v>
       </c>
-      <c r="Q37">
+      <c r="S37">
         <v>35.327100000000002</v>
       </c>
-      <c r="R37">
+      <c r="T37">
         <v>29</v>
       </c>
-      <c r="S37">
+      <c r="U37">
         <v>35.127800000000001</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>200</v>
       </c>
@@ -2693,31 +2916,37 @@
         <v>37</v>
       </c>
       <c r="M38">
+        <v>38.420900000000003</v>
+      </c>
+      <c r="N38">
+        <v>38</v>
+      </c>
+      <c r="O38">
         <v>39.0578</v>
-      </c>
-      <c r="N38">
-        <v>31</v>
-      </c>
-      <c r="O38">
-        <v>37.417099999999998</v>
       </c>
       <c r="P38">
         <v>31</v>
       </c>
       <c r="Q38">
-        <v>34.843499999999999</v>
+        <v>37.417099999999998</v>
       </c>
       <c r="R38">
         <v>31</v>
       </c>
       <c r="S38">
+        <v>34.843499999999999</v>
+      </c>
+      <c r="T38">
+        <v>31</v>
+      </c>
+      <c r="U38">
         <v>34.737499999999997</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>250</v>
       </c>
@@ -2755,31 +2984,37 @@
         <v>32</v>
       </c>
       <c r="M39">
+        <v>39.332900000000002</v>
+      </c>
+      <c r="N39">
+        <v>30</v>
+      </c>
+      <c r="O39">
         <v>38.401400000000002</v>
       </c>
-      <c r="N39">
+      <c r="P39">
         <v>29</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>36.977600000000002</v>
       </c>
-      <c r="P39">
+      <c r="R39">
         <v>28</v>
       </c>
-      <c r="Q39">
+      <c r="S39">
         <v>34.311599999999999</v>
       </c>
-      <c r="R39">
+      <c r="T39">
         <v>30</v>
       </c>
-      <c r="S39">
+      <c r="U39">
         <v>34.755800000000001</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>300</v>
       </c>
@@ -2817,31 +3052,37 @@
         <v>35</v>
       </c>
       <c r="M40">
+        <v>40.444299999999998</v>
+      </c>
+      <c r="N40">
+        <v>30</v>
+      </c>
+      <c r="O40">
         <v>37.869700000000002</v>
-      </c>
-      <c r="N40">
-        <v>31</v>
-      </c>
-      <c r="O40">
-        <v>35.679299999999998</v>
       </c>
       <c r="P40">
         <v>31</v>
       </c>
       <c r="Q40">
+        <v>35.679299999999998</v>
+      </c>
+      <c r="R40">
+        <v>31</v>
+      </c>
+      <c r="S40">
         <v>33.0246</v>
       </c>
-      <c r="R40">
+      <c r="T40">
         <v>34</v>
       </c>
-      <c r="S40">
+      <c r="U40">
         <v>34.786299999999997</v>
       </c>
-      <c r="T40">
+      <c r="V40">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>350</v>
       </c>
@@ -2879,31 +3120,37 @@
         <v>39</v>
       </c>
       <c r="M41">
+        <v>39.355200000000004</v>
+      </c>
+      <c r="N41">
+        <v>35</v>
+      </c>
+      <c r="O41">
         <v>37.965000000000003</v>
       </c>
-      <c r="N41">
+      <c r="P41">
         <v>32</v>
       </c>
-      <c r="O41">
+      <c r="Q41">
         <v>34.44</v>
-      </c>
-      <c r="P41">
-        <v>35</v>
-      </c>
-      <c r="Q41">
-        <v>33.277500000000003</v>
       </c>
       <c r="R41">
         <v>35</v>
       </c>
       <c r="S41">
+        <v>33.277500000000003</v>
+      </c>
+      <c r="T41">
+        <v>35</v>
+      </c>
+      <c r="U41">
         <v>32.738700000000001</v>
       </c>
-      <c r="T41">
+      <c r="V41">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>400</v>
       </c>
@@ -2941,31 +3188,37 @@
         <v>36</v>
       </c>
       <c r="M42">
+        <v>38.936300000000003</v>
+      </c>
+      <c r="N42">
+        <v>29</v>
+      </c>
+      <c r="O42">
         <v>36.831899999999997</v>
       </c>
-      <c r="N42">
+      <c r="P42">
         <v>30</v>
       </c>
-      <c r="O42">
+      <c r="Q42">
         <v>33.164299999999997</v>
       </c>
-      <c r="P42">
+      <c r="R42">
         <v>36</v>
       </c>
-      <c r="Q42">
+      <c r="S42">
         <v>33.479300000000002</v>
       </c>
-      <c r="R42">
+      <c r="T42">
         <v>35</v>
       </c>
-      <c r="S42">
+      <c r="U42">
         <v>33.720500000000001</v>
       </c>
-      <c r="T42">
+      <c r="V42">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>450</v>
       </c>
@@ -3003,31 +3256,37 @@
         <v>42</v>
       </c>
       <c r="M43">
+        <v>36.923999999999999</v>
+      </c>
+      <c r="N43">
+        <v>37</v>
+      </c>
+      <c r="O43">
         <v>34.687199999999997</v>
       </c>
-      <c r="N43">
+      <c r="P43">
         <v>39</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
         <v>32.6355</v>
       </c>
-      <c r="P43">
+      <c r="R43">
         <v>40</v>
       </c>
-      <c r="Q43">
+      <c r="S43">
         <v>33.210700000000003</v>
       </c>
-      <c r="R43">
+      <c r="T43">
         <v>34</v>
       </c>
-      <c r="S43">
+      <c r="U43">
         <v>33.874899999999997</v>
       </c>
-      <c r="T43">
+      <c r="V43">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>500</v>
       </c>
@@ -3065,31 +3324,37 @@
         <v>34</v>
       </c>
       <c r="M44">
+        <v>38.520499999999998</v>
+      </c>
+      <c r="N44">
+        <v>33</v>
+      </c>
+      <c r="O44">
         <v>33.848100000000002</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <v>35</v>
       </c>
-      <c r="O44">
+      <c r="Q44">
         <v>34.872300000000003</v>
       </c>
-      <c r="P44">
+      <c r="R44">
         <v>37</v>
       </c>
-      <c r="Q44">
+      <c r="S44">
         <v>34.249299999999998</v>
       </c>
-      <c r="R44">
+      <c r="T44">
         <v>38</v>
       </c>
-      <c r="S44">
+      <c r="U44">
         <v>33.683900000000001</v>
       </c>
-      <c r="T44">
+      <c r="V44">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>600</v>
       </c>
@@ -3127,31 +3392,37 @@
         <v>37</v>
       </c>
       <c r="M45">
+        <v>38.046700000000001</v>
+      </c>
+      <c r="N45">
+        <v>34</v>
+      </c>
+      <c r="O45">
         <v>33.994900000000001</v>
       </c>
-      <c r="N45">
+      <c r="P45">
         <v>42</v>
       </c>
-      <c r="O45">
+      <c r="Q45">
         <v>34.4024</v>
       </c>
-      <c r="P45">
+      <c r="R45">
         <v>40</v>
       </c>
-      <c r="Q45">
+      <c r="S45">
         <v>34.077800000000003</v>
       </c>
-      <c r="R45">
+      <c r="T45">
         <v>37</v>
       </c>
-      <c r="S45">
+      <c r="U45">
         <v>37.131300000000003</v>
       </c>
-      <c r="T45">
+      <c r="V45">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>700</v>
       </c>
@@ -3189,31 +3460,37 @@
         <v>39</v>
       </c>
       <c r="M46">
+        <v>36.6235</v>
+      </c>
+      <c r="N46">
+        <v>47</v>
+      </c>
+      <c r="O46">
         <v>33.606499999999997</v>
       </c>
-      <c r="N46">
+      <c r="P46">
         <v>50</v>
       </c>
-      <c r="O46">
+      <c r="Q46">
         <v>34.630400000000002</v>
       </c>
-      <c r="P46">
+      <c r="R46">
         <v>44</v>
       </c>
-      <c r="Q46">
+      <c r="S46">
         <v>35.887500000000003</v>
       </c>
-      <c r="R46">
+      <c r="T46">
         <v>37</v>
       </c>
-      <c r="S46">
+      <c r="U46">
         <v>35.143300000000004</v>
       </c>
-      <c r="T46">
+      <c r="V46">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>800</v>
       </c>
@@ -3251,31 +3528,37 @@
         <v>42</v>
       </c>
       <c r="M47">
-        <v>36.019300000000001</v>
+        <v>36.351799999999997</v>
       </c>
       <c r="N47">
         <v>49</v>
       </c>
       <c r="O47">
+        <v>36.019300000000001</v>
+      </c>
+      <c r="P47">
+        <v>49</v>
+      </c>
+      <c r="Q47">
         <v>35.697099999999999</v>
       </c>
-      <c r="P47">
+      <c r="R47">
         <v>41</v>
       </c>
-      <c r="Q47">
+      <c r="S47">
         <v>36.973399999999998</v>
       </c>
-      <c r="R47">
+      <c r="T47">
         <v>34</v>
       </c>
-      <c r="S47">
+      <c r="U47">
         <v>35.896500000000003</v>
       </c>
-      <c r="T47">
+      <c r="V47">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>900</v>
       </c>
@@ -3313,31 +3596,37 @@
         <v>51</v>
       </c>
       <c r="M48">
+        <v>34.531799999999997</v>
+      </c>
+      <c r="N48">
+        <v>59</v>
+      </c>
+      <c r="O48">
         <v>34.994500000000002</v>
       </c>
-      <c r="N48">
+      <c r="P48">
         <v>53</v>
       </c>
-      <c r="O48">
+      <c r="Q48">
         <v>38.314900000000002</v>
       </c>
-      <c r="P48">
+      <c r="R48">
         <v>44</v>
       </c>
-      <c r="Q48">
+      <c r="S48">
         <v>38.560400000000001</v>
       </c>
-      <c r="R48">
+      <c r="T48">
         <v>35</v>
       </c>
-      <c r="S48">
+      <c r="U48">
         <v>35.039299999999997</v>
       </c>
-      <c r="T48">
+      <c r="V48">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>1000</v>
       </c>
@@ -3375,40 +3664,47 @@
         <v>52</v>
       </c>
       <c r="M49">
+        <v>35.221400000000003</v>
+      </c>
+      <c r="N49">
+        <v>66</v>
+      </c>
+      <c r="O49">
         <v>35.110999999999997</v>
       </c>
-      <c r="N49">
+      <c r="P49">
         <v>58</v>
       </c>
-      <c r="O49">
+      <c r="Q49">
         <v>38.020200000000003</v>
       </c>
-      <c r="P49">
+      <c r="R49">
         <v>38</v>
       </c>
-      <c r="Q49">
+      <c r="S49">
         <v>37.259599999999999</v>
-      </c>
-      <c r="R49">
-        <v>32</v>
-      </c>
-      <c r="S49">
-        <v>33.496699999999997</v>
       </c>
       <c r="T49">
         <v>32</v>
       </c>
+      <c r="U49">
+        <v>33.496699999999997</v>
+      </c>
+      <c r="V49">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="O1:P1"/>
+  <mergeCells count="10">
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
